--- a/SchedulingData/dynamic9/pso/scheduling2_17.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_17.xlsx
@@ -462,178 +462,178 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>209.38</v>
+        <v>231.64</v>
       </c>
       <c r="D2" t="n">
-        <v>288.78</v>
+        <v>278.86</v>
       </c>
       <c r="E2" t="n">
-        <v>12.792</v>
+        <v>14.264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>288.78</v>
+        <v>251.18</v>
       </c>
       <c r="D3" t="n">
-        <v>330.9</v>
+        <v>300.78</v>
       </c>
       <c r="E3" t="n">
-        <v>10.2</v>
+        <v>9.612</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>203.5</v>
+        <v>243.9</v>
       </c>
       <c r="D4" t="n">
-        <v>273.48</v>
+        <v>292.34</v>
       </c>
       <c r="E4" t="n">
-        <v>12.172</v>
+        <v>9.956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>232.28</v>
+        <v>292.34</v>
       </c>
       <c r="D5" t="n">
-        <v>298.04</v>
+        <v>340.8</v>
       </c>
       <c r="E5" t="n">
-        <v>11.836</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>269.32</v>
+        <v>238.78</v>
       </c>
       <c r="D6" t="n">
-        <v>305.4</v>
+        <v>291.58</v>
       </c>
       <c r="E6" t="n">
-        <v>8.800000000000001</v>
+        <v>12.492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>274.68</v>
+        <v>278.86</v>
       </c>
       <c r="D7" t="n">
-        <v>349.28</v>
+        <v>317.44</v>
       </c>
       <c r="E7" t="n">
-        <v>13.212</v>
+        <v>11.536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>231.32</v>
+        <v>291.58</v>
       </c>
       <c r="D8" t="n">
-        <v>296.44</v>
+        <v>375.66</v>
       </c>
       <c r="E8" t="n">
-        <v>11.496</v>
+        <v>9.683999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>296.44</v>
+        <v>340.8</v>
       </c>
       <c r="D9" t="n">
-        <v>360.3</v>
+        <v>395.4</v>
       </c>
       <c r="E9" t="n">
-        <v>8.74</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>273.48</v>
+        <v>300.78</v>
       </c>
       <c r="D10" t="n">
-        <v>332.66</v>
+        <v>334.74</v>
       </c>
       <c r="E10" t="n">
-        <v>8.364000000000001</v>
+        <v>6.856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,18 +641,18 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>298.04</v>
+        <v>245.72</v>
       </c>
       <c r="D11" t="n">
-        <v>345.74</v>
+        <v>283.62</v>
       </c>
       <c r="E11" t="n">
-        <v>9.676</v>
+        <v>13.768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -660,108 +660,108 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>349.28</v>
+        <v>317.44</v>
       </c>
       <c r="D12" t="n">
-        <v>416.08</v>
+        <v>374.04</v>
       </c>
       <c r="E12" t="n">
-        <v>10.152</v>
+        <v>8.476000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>305.4</v>
+        <v>334.74</v>
       </c>
       <c r="D13" t="n">
-        <v>358.54</v>
+        <v>402.3</v>
       </c>
       <c r="E13" t="n">
-        <v>6.096</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>360.3</v>
+        <v>283.62</v>
       </c>
       <c r="D14" t="n">
-        <v>394.78</v>
+        <v>324.6</v>
       </c>
       <c r="E14" t="n">
-        <v>5.932</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>330.9</v>
+        <v>224.62</v>
       </c>
       <c r="D15" t="n">
-        <v>384.56</v>
+        <v>265.04</v>
       </c>
       <c r="E15" t="n">
-        <v>7.464</v>
+        <v>11.696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>345.74</v>
+        <v>265.04</v>
       </c>
       <c r="D16" t="n">
-        <v>400.34</v>
+        <v>303.74</v>
       </c>
       <c r="E16" t="n">
-        <v>6.816</v>
+        <v>9.456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>332.66</v>
+        <v>303.74</v>
       </c>
       <c r="D17" t="n">
-        <v>381.46</v>
+        <v>348.74</v>
       </c>
       <c r="E17" t="n">
-        <v>6.124</v>
+        <v>6.596</v>
       </c>
     </row>
   </sheetData>
